--- a/clicks1.xlsx
+++ b/clicks1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Box Sync\R-scripts\scraper\click_automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randa_dauphinee\Documents\MarketData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8365144F-1863-4BFB-BD86-8778584BF67A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D994095-717F-41DE-A47E-B9538BE78BD6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{889B1BD3-D8B7-4F82-9DEE-0C36FF33A955}"/>
+    <workbookView xWindow="28680" yWindow="-1065" windowWidth="29040" windowHeight="15225" xr2:uid="{889B1BD3-D8B7-4F82-9DEE-0C36FF33A955}"/>
   </bookViews>
   <sheets>
     <sheet name="url" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>#sfcontent &gt; div.rf_ctlwrap &gt; div.rf_ctl2_opt &gt; div.exportButton &gt; span &gt; a</t>
   </si>
@@ -78,10 +78,25 @@
     <t>http://financials.morningstar.com/income-statement/is.html?t=MSFT</t>
   </si>
   <si>
-    <t>MSFT-MarketData</t>
-  </si>
-  <si>
     <t>final_click</t>
+  </si>
+  <si>
+    <t>http://financials.morningstar.com/balance-sheet/bs.html?t=MSFT&amp;region=usa&amp;culture=en-US</t>
+  </si>
+  <si>
+    <t>#financials &gt; div.r_tbar0.positionrelative &gt; div &gt; a &gt; div</t>
+  </si>
+  <si>
+    <t>http://financials.morningstar.com/ratios/r.html?t=MSFT&amp;region=usa&amp;culture=en-US</t>
+  </si>
+  <si>
+    <t>MSFT - Income Statement URL</t>
+  </si>
+  <si>
+    <t>MSFT - Balance Sheet URL</t>
+  </si>
+  <si>
+    <t>MSFT - Ratios URL</t>
   </si>
 </sst>
 </file>
@@ -463,18 +478,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E38E8E-941E-4455-8E6F-40B820C663FD}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="75.140625" customWidth="1"/>
     <col min="6" max="6" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -492,7 +508,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -503,7 +519,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -516,6 +532,40 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
